--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sfrp1-Fzd6.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sfrp1-Fzd6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Sfrp1</t>
   </si>
   <si>
     <t>Fzd6</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.30336287938788</v>
+        <v>3.015829666666667</v>
       </c>
       <c r="H2">
-        <v>1.30336287938788</v>
+        <v>9.047489000000001</v>
       </c>
       <c r="I2">
-        <v>0.009708444342545969</v>
+        <v>0.02149774561142444</v>
       </c>
       <c r="J2">
-        <v>0.009708444342545969</v>
+        <v>0.02149774561142444</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.410013692638</v>
+        <v>20.545366</v>
       </c>
       <c r="N2">
-        <v>20.410013692638</v>
+        <v>61.636098</v>
       </c>
       <c r="O2">
-        <v>0.8981037100610688</v>
+        <v>0.8965950288338865</v>
       </c>
       <c r="P2">
-        <v>0.8981037100610688</v>
+        <v>0.8965950288338865</v>
       </c>
       <c r="Q2">
-        <v>26.60165421478272</v>
+        <v>61.96132429532467</v>
       </c>
       <c r="R2">
-        <v>26.60165421478272</v>
+        <v>557.6519186579221</v>
       </c>
       <c r="S2">
-        <v>0.00871918988296193</v>
+        <v>0.01927477184633865</v>
       </c>
       <c r="T2">
-        <v>0.00871918988296193</v>
+        <v>0.01927477184633865</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.30336287938788</v>
+        <v>3.015829666666667</v>
       </c>
       <c r="H3">
-        <v>1.30336287938788</v>
+        <v>9.047489000000001</v>
       </c>
       <c r="I3">
-        <v>0.009708444342545969</v>
+        <v>0.02149774561142444</v>
       </c>
       <c r="J3">
-        <v>0.009708444342545969</v>
+        <v>0.02149774561142444</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.13800170000141</v>
+        <v>2.154739666666666</v>
       </c>
       <c r="N3">
-        <v>2.13800170000141</v>
+        <v>6.464219</v>
       </c>
       <c r="O3">
-        <v>0.09407868548274155</v>
+        <v>0.09403234157836461</v>
       </c>
       <c r="P3">
-        <v>0.09407868548274155</v>
+        <v>0.09403234157836463</v>
       </c>
       <c r="Q3">
-        <v>2.78659205185002</v>
+        <v>6.498327810676778</v>
       </c>
       <c r="R3">
-        <v>2.78659205185002</v>
+        <v>58.484950296091</v>
       </c>
       <c r="S3">
-        <v>0.0009133576818290838</v>
+        <v>0.002021483358498252</v>
       </c>
       <c r="T3">
-        <v>0.0009133576818290838</v>
+        <v>0.002021483358498252</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.30336287938788</v>
+        <v>3.015829666666667</v>
       </c>
       <c r="H4">
-        <v>1.30336287938788</v>
+        <v>9.047489000000001</v>
       </c>
       <c r="I4">
-        <v>0.009708444342545969</v>
+        <v>0.02149774561142444</v>
       </c>
       <c r="J4">
-        <v>0.009708444342545969</v>
+        <v>0.02149774561142444</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.177660343907952</v>
+        <v>0.2147726666666667</v>
       </c>
       <c r="N4">
-        <v>0.177660343907952</v>
+        <v>0.6443180000000001</v>
       </c>
       <c r="O4">
-        <v>0.007817604456189576</v>
+        <v>0.009372629587748921</v>
       </c>
       <c r="P4">
-        <v>0.007817604456189576</v>
+        <v>0.009372629587748921</v>
       </c>
       <c r="Q4">
-        <v>0.2315558973889093</v>
+        <v>0.6477177797224446</v>
       </c>
       <c r="R4">
-        <v>0.2315558973889093</v>
+        <v>5.829460017502001</v>
       </c>
       <c r="S4">
-        <v>7.589677775495585E-05</v>
+        <v>0.0002014904065875362</v>
       </c>
       <c r="T4">
-        <v>7.589677775495585E-05</v>
+        <v>0.0002014904065875362</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>132.947072453085</v>
+        <v>136.9593173333334</v>
       </c>
       <c r="H5">
-        <v>132.947072453085</v>
+        <v>410.8779520000001</v>
       </c>
       <c r="I5">
-        <v>0.990291555657454</v>
+        <v>0.976287419574543</v>
       </c>
       <c r="J5">
-        <v>0.990291555657454</v>
+        <v>0.976287419574543</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.410013692638</v>
+        <v>20.545366</v>
       </c>
       <c r="N5">
-        <v>20.410013692638</v>
+        <v>61.636098</v>
       </c>
       <c r="O5">
-        <v>0.8981037100610688</v>
+        <v>0.8965950288338865</v>
       </c>
       <c r="P5">
-        <v>0.8981037100610688</v>
+        <v>0.8965950288338865</v>
       </c>
       <c r="Q5">
-        <v>2713.451569163601</v>
+        <v>2813.879301723478</v>
       </c>
       <c r="R5">
-        <v>2713.451569163601</v>
+        <v>25324.9137155113</v>
       </c>
       <c r="S5">
-        <v>0.8893845201781069</v>
+        <v>0.8753344471035981</v>
       </c>
       <c r="T5">
-        <v>0.8893845201781069</v>
+        <v>0.8753344471035981</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>132.947072453085</v>
+        <v>136.9593173333334</v>
       </c>
       <c r="H6">
-        <v>132.947072453085</v>
+        <v>410.8779520000001</v>
       </c>
       <c r="I6">
-        <v>0.990291555657454</v>
+        <v>0.976287419574543</v>
       </c>
       <c r="J6">
-        <v>0.990291555657454</v>
+        <v>0.976287419574543</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.13800170000141</v>
+        <v>2.154739666666666</v>
       </c>
       <c r="N6">
-        <v>2.13800170000141</v>
+        <v>6.464219</v>
       </c>
       <c r="O6">
-        <v>0.09407868548274155</v>
+        <v>0.09403234157836461</v>
       </c>
       <c r="P6">
-        <v>0.09407868548274155</v>
+        <v>0.09403234157836463</v>
       </c>
       <c r="Q6">
-        <v>284.2410669149064</v>
+        <v>295.1116737777209</v>
       </c>
       <c r="R6">
-        <v>284.2410669149064</v>
+        <v>2656.005063999488</v>
       </c>
       <c r="S6">
-        <v>0.09316532780091247</v>
+        <v>0.0918025921160936</v>
       </c>
       <c r="T6">
-        <v>0.09316532780091247</v>
+        <v>0.09180259211609361</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>136.9593173333334</v>
+      </c>
+      <c r="H7">
+        <v>410.8779520000001</v>
+      </c>
+      <c r="I7">
+        <v>0.976287419574543</v>
+      </c>
+      <c r="J7">
+        <v>0.976287419574543</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.2147726666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.6443180000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.009372629587748921</v>
+      </c>
+      <c r="P7">
+        <v>0.009372629587748921</v>
+      </c>
+      <c r="Q7">
+        <v>29.41511780852623</v>
+      </c>
+      <c r="R7">
+        <v>264.7360602767361</v>
+      </c>
+      <c r="S7">
+        <v>0.009150380354851407</v>
+      </c>
+      <c r="T7">
+        <v>0.009150380354851407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>132.947072453085</v>
-      </c>
-      <c r="H7">
-        <v>132.947072453085</v>
-      </c>
-      <c r="I7">
-        <v>0.990291555657454</v>
-      </c>
-      <c r="J7">
-        <v>0.990291555657454</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.177660343907952</v>
-      </c>
-      <c r="N7">
-        <v>0.177660343907952</v>
-      </c>
-      <c r="O7">
-        <v>0.007817604456189576</v>
-      </c>
-      <c r="P7">
-        <v>0.007817604456189576</v>
-      </c>
-      <c r="Q7">
-        <v>23.61942261357049</v>
-      </c>
-      <c r="R7">
-        <v>23.61942261357049</v>
-      </c>
-      <c r="S7">
-        <v>0.00774170767843462</v>
-      </c>
-      <c r="T7">
-        <v>0.00774170767843462</v>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.31071</v>
+      </c>
+      <c r="H8">
+        <v>0.93213</v>
+      </c>
+      <c r="I8">
+        <v>0.002214834814032607</v>
+      </c>
+      <c r="J8">
+        <v>0.002214834814032608</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>20.545366</v>
+      </c>
+      <c r="N8">
+        <v>61.636098</v>
+      </c>
+      <c r="O8">
+        <v>0.8965950288338865</v>
+      </c>
+      <c r="P8">
+        <v>0.8965950288338865</v>
+      </c>
+      <c r="Q8">
+        <v>6.38365066986</v>
+      </c>
+      <c r="R8">
+        <v>57.45285602874</v>
+      </c>
+      <c r="S8">
+        <v>0.001985809883949861</v>
+      </c>
+      <c r="T8">
+        <v>0.001985809883949861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.31071</v>
+      </c>
+      <c r="H9">
+        <v>0.93213</v>
+      </c>
+      <c r="I9">
+        <v>0.002214834814032607</v>
+      </c>
+      <c r="J9">
+        <v>0.002214834814032608</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.154739666666666</v>
+      </c>
+      <c r="N9">
+        <v>6.464219</v>
+      </c>
+      <c r="O9">
+        <v>0.09403234157836461</v>
+      </c>
+      <c r="P9">
+        <v>0.09403234157836463</v>
+      </c>
+      <c r="Q9">
+        <v>0.6694991618299999</v>
+      </c>
+      <c r="R9">
+        <v>6.02549245647</v>
+      </c>
+      <c r="S9">
+        <v>0.0002082661037727678</v>
+      </c>
+      <c r="T9">
+        <v>0.0002082661037727678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.31071</v>
+      </c>
+      <c r="H10">
+        <v>0.93213</v>
+      </c>
+      <c r="I10">
+        <v>0.002214834814032607</v>
+      </c>
+      <c r="J10">
+        <v>0.002214834814032608</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.2147726666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.6443180000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.009372629587748921</v>
+      </c>
+      <c r="P10">
+        <v>0.009372629587748921</v>
+      </c>
+      <c r="Q10">
+        <v>0.06673201526</v>
+      </c>
+      <c r="R10">
+        <v>0.6005881373400001</v>
+      </c>
+      <c r="S10">
+        <v>2.075882630997839E-05</v>
+      </c>
+      <c r="T10">
+        <v>2.07588263099784E-05</v>
       </c>
     </row>
   </sheetData>
